--- a/output/fit_clients/fit_round_257.xlsx
+++ b/output/fit_clients/fit_round_257.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2199390113.078222</v>
+        <v>1776899311.034982</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1091511919990096</v>
+        <v>0.1034723291555927</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03865136135481944</v>
+        <v>0.03043818377457698</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1099695079.022103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2051682911.987279</v>
+        <v>2439567124.401446</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1421817076295567</v>
+        <v>0.1705433287689643</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04102431289922502</v>
+        <v>0.03686950171504905</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1025841504.049937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5190715961.430265</v>
+        <v>4047022048.922797</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1216857543312699</v>
+        <v>0.1501223203264363</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03360296741548941</v>
+        <v>0.03343696264455683</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>93</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2595358079.245955</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3545343174.312538</v>
+        <v>3846615019.727104</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09985065534745059</v>
+        <v>0.09992501113549293</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04935168635678907</v>
+        <v>0.03676360843058673</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1772671620.897868</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2231839935.67564</v>
+        <v>1922070130.004196</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09949062755947401</v>
+        <v>0.1147793493153435</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03663335743900066</v>
+        <v>0.05324517799168629</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>42</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1115919972.334971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2254743542.389455</v>
+        <v>2604871870.533024</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06299158418086238</v>
+        <v>0.0920341843014679</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03347688294771956</v>
+        <v>0.03594048374834798</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>81</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1127371807.872785</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2582522515.514709</v>
+        <v>3635195473.944832</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1353908931155246</v>
+        <v>0.2195582210312777</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02561865043897334</v>
+        <v>0.03335961689538258</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>82</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1291261272.583871</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2182919364.505427</v>
+        <v>1963335821.607102</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1309303285952384</v>
+        <v>0.1746109912331317</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03066810207523075</v>
+        <v>0.02252494940504994</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1091459683.466209</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5791019390.193739</v>
+        <v>5887152270.425641</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1599244823673295</v>
+        <v>0.1527098723012918</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0398442877070353</v>
+        <v>0.0372340449630072</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>108</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2895509855.652071</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3804633786.386806</v>
+        <v>3713100060.388361</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1201312857884101</v>
+        <v>0.1842723017461146</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04111340474269122</v>
+        <v>0.04351871656032896</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>106</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1902316892.225657</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3233706513.345452</v>
+        <v>2148760670.262244</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1985692826800179</v>
+        <v>0.1426983105035097</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03263340888558539</v>
+        <v>0.03281210286635257</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>86</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1616853296.055156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3383923138.451053</v>
+        <v>4494726948.861224</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0866704688249005</v>
+        <v>0.06632519916816676</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03033027477083348</v>
+        <v>0.01940235970703777</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>86</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1691961655.441878</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3086340957.423266</v>
+        <v>3492510303.566797</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1853800298675344</v>
+        <v>0.1490255572334953</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03142969189199613</v>
+        <v>0.03346532773353895</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>84</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1543170506.883533</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1589861780.277662</v>
+        <v>1710409358.257864</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1024314365016879</v>
+        <v>0.07784701356398621</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03394810447623976</v>
+        <v>0.0401635950608332</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>794930996.0070536</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2802893268.073829</v>
+        <v>1879789974.960069</v>
       </c>
       <c r="F16" t="n">
-        <v>0.102260751656651</v>
+        <v>0.08047825948714547</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04056682108670497</v>
+        <v>0.04673193418942403</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>47</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1401446637.798516</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3294134681.193919</v>
+        <v>4953022561.876932</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1513852464569762</v>
+        <v>0.1212520759318668</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04349075199747796</v>
+        <v>0.0500386240269606</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>75</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1647067410.09171</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3477206981.892844</v>
+        <v>3162178311.428966</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1428670800439964</v>
+        <v>0.1291292105337873</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02143383591938265</v>
+        <v>0.02975227286051159</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>84</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1738603486.650831</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1077927301.903285</v>
+        <v>1197855562.295487</v>
       </c>
       <c r="F19" t="n">
-        <v>0.155626197763173</v>
+        <v>0.1496612264148849</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01735677822138644</v>
+        <v>0.02235721317745509</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>538963699.15558</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2152743074.274739</v>
+        <v>2164381563.369003</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1398781835576755</v>
+        <v>0.1007425911764761</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02179154466460115</v>
+        <v>0.02792753448123865</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>38</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1076371547.20665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2600951429.107305</v>
+        <v>2603285042.479784</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07068411880598828</v>
+        <v>0.07766010721204977</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03637156478945071</v>
+        <v>0.036844150206032</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>20</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1300475692.988413</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2697501805.556818</v>
+        <v>2583147552.211146</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1430234168158399</v>
+        <v>0.130869732754997</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0557793660440583</v>
+        <v>0.04335688622254093</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>71</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1348750982.420023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1225224000.413643</v>
+        <v>1070456314.384325</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1339276702556516</v>
+        <v>0.1672342584045348</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04069055571818706</v>
+        <v>0.04777497261962378</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>612612032.4338883</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3064510221.477422</v>
+        <v>2698169821.91067</v>
       </c>
       <c r="F24" t="n">
-        <v>0.131911056903385</v>
+        <v>0.09408051264531597</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03473699346244317</v>
+        <v>0.03153397921659959</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>75</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1532255141.631731</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1394430322.744263</v>
+        <v>1320588222.306042</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07945285038447125</v>
+        <v>0.1223790207551654</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02328964153419767</v>
+        <v>0.02733188804137617</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>697215134.5951496</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1215425098.000305</v>
+        <v>957713776.2005523</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1072148242336971</v>
+        <v>0.09916744262466538</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0311276575408907</v>
+        <v>0.03716706987680415</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>607712573.7872623</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4660174085.507318</v>
+        <v>3452684248.121399</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1253137572836714</v>
+        <v>0.1531213027819954</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02042744446737634</v>
+        <v>0.02599095120396388</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>61</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2330087020.094491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2997706577.499495</v>
+        <v>3596281525.263141</v>
       </c>
       <c r="F28" t="n">
-        <v>0.12526337679807</v>
+        <v>0.1108066301970072</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04748943539705698</v>
+        <v>0.03433550074738057</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>82</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1498853299.754084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5297180745.451484</v>
+        <v>4978689457.187113</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09390354685170815</v>
+        <v>0.09518096109025528</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03341669025558436</v>
+        <v>0.03010902734993229</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>113</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2648590299.732059</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2150137700.686698</v>
+        <v>2355436309.926049</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09110955005930069</v>
+        <v>0.1314329082510239</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03543894803873705</v>
+        <v>0.03642402611640724</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1075068904.927456</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1468164597.057779</v>
+        <v>1174954582.826566</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08017139100495982</v>
+        <v>0.1028656570700966</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0480207969624839</v>
+        <v>0.03481756702427143</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>734082186.8609964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1792263580.495978</v>
+        <v>1334409085.391695</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08992758027225115</v>
+        <v>0.08310190694416485</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02567566461918006</v>
+        <v>0.03041641826620695</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>896131919.1397386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2628205334.021844</v>
+        <v>1943216901.888176</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1367161681038085</v>
+        <v>0.2024020803596933</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03766237079219538</v>
+        <v>0.0458784598258235</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>79</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1314102694.296713</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1362352052.835128</v>
+        <v>1254998420.370532</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09979279840067572</v>
+        <v>0.1057766539210666</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02237234666110778</v>
+        <v>0.02392271514222121</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>681176004.8842674</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>905439855.5428329</v>
+        <v>1235365741.137925</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08767259521904679</v>
+        <v>0.09554567715803157</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03396868688911646</v>
+        <v>0.04266207015950198</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>452719967.0689349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2540586646.323656</v>
+        <v>2970304821.672266</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1125820232064489</v>
+        <v>0.1166798865659986</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02135474132752184</v>
+        <v>0.0255514191645618</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>64</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1270293341.891992</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2345313963.754502</v>
+        <v>2061114497.212235</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07796250116637757</v>
+        <v>0.08968249270018323</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03716813992073693</v>
+        <v>0.04006860693207794</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>66</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1172657056.645396</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1351212744.843137</v>
+        <v>1394061135.401231</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1117466848277417</v>
+        <v>0.09966671180843811</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03959073314993785</v>
+        <v>0.03799373712897681</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>675606442.6873939</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1411638338.700224</v>
+        <v>1393701111.732213</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1357139804199131</v>
+        <v>0.126966261857515</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02919194167523427</v>
+        <v>0.02286565742657634</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>705819253.2234664</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1295435395.335804</v>
+        <v>1498906558.325625</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1326449073481969</v>
+        <v>0.09853775779895388</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04885523136210315</v>
+        <v>0.04499623802488338</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>647717715.0634651</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2892486264.312426</v>
+        <v>2469672664.780771</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1637723180665218</v>
+        <v>0.1453495151962229</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04198620323190294</v>
+        <v>0.03300978239301546</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>61</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1446243118.96719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2958450869.758119</v>
+        <v>3581817901.668259</v>
       </c>
       <c r="F42" t="n">
-        <v>0.079786020636719</v>
+        <v>0.08804776296237683</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04645434481984484</v>
+        <v>0.03450419372511807</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>91</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1479225392.45531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2744338464.962042</v>
+        <v>2245932668.23767</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1856746924450036</v>
+        <v>0.1933344163867386</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01639404962455006</v>
+        <v>0.02113221956844727</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>92</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1372169256.57396</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2219222147.421718</v>
+        <v>1866190624.129166</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06655095438979887</v>
+        <v>0.08359840037900367</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03269544683802909</v>
+        <v>0.02774196559175613</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1109611223.772264</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2258396513.613766</v>
+        <v>2344551531.113668</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1282755104688457</v>
+        <v>0.1510693079169513</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03742217870102364</v>
+        <v>0.04891783701358447</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1129198273.746302</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4589787401.002789</v>
+        <v>3797931302.901694</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1781923521575591</v>
+        <v>0.1413673969945279</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04023868539978597</v>
+        <v>0.04006314291385204</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>91</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2294893703.830683</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3322277263.45505</v>
+        <v>3353152486.9951</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2014176138604491</v>
+        <v>0.1837988715387469</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0563733239600584</v>
+        <v>0.03622725051649883</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>69</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1661138592.465166</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4622284116.147551</v>
+        <v>4490636536.433543</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1103088416445361</v>
+        <v>0.0763628560815022</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02824958961832293</v>
+        <v>0.02921699793819766</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>85</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2311142056.266092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1529091344.652523</v>
+        <v>1365644198.007204</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1851827693220089</v>
+        <v>0.1495228068219626</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03265124958312134</v>
+        <v>0.03009106324596296</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>764545699.8294692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3440774605.893886</v>
+        <v>2999157980.839475</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1238998623080559</v>
+        <v>0.1637790498042823</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04974615356208223</v>
+        <v>0.04689411619295886</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>88</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1720387331.400771</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1051427859.22073</v>
+        <v>1495614624.805708</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1885551843605457</v>
+        <v>0.1289221192296414</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04349826901245316</v>
+        <v>0.05090792686832308</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>525714005.241833</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5092575636.513123</v>
+        <v>5035749367.349247</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1285315582511654</v>
+        <v>0.1263675751231796</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03909561302552686</v>
+        <v>0.05144444017684548</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>106</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2546287810.423542</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2744989222.43934</v>
+        <v>3190051279.511345</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2038259341781866</v>
+        <v>0.1334646290083903</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0348386448406048</v>
+        <v>0.02376368091017067</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>73</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1372494661.226191</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3933236431.58966</v>
+        <v>3389544280.395373</v>
       </c>
       <c r="F54" t="n">
-        <v>0.124328748278112</v>
+        <v>0.1073671144364214</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05116911994532791</v>
+        <v>0.05157907708894007</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>83</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1966618274.631151</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3873864088.149312</v>
+        <v>3426695325.269378</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1946634137607306</v>
+        <v>0.1838296094037363</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0253479869080314</v>
+        <v>0.02832901864764402</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1936932013.410739</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1183557565.333722</v>
+        <v>1286370405.290164</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1560160311321087</v>
+        <v>0.1143769356440489</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04549246943016302</v>
+        <v>0.05653837377023334</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>591778871.826187</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3084132904.751541</v>
+        <v>4275411627.429299</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1289813058917252</v>
+        <v>0.1412955186769746</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02767541706615701</v>
+        <v>0.02228275778802661</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>81</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1542066463.837482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1617592690.74275</v>
+        <v>1164425289.521497</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1565700841807688</v>
+        <v>0.1692786724255785</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03367536588656108</v>
+        <v>0.03571503131147217</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>808796365.7612034</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4721416612.811</v>
+        <v>4352112441.362213</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1144815891513011</v>
+        <v>0.08584726454335415</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03662684333817594</v>
+        <v>0.04826405025274144</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>72</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2360708247.558627</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2553172160.437562</v>
+        <v>2357763929.82197</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1466704364616195</v>
+        <v>0.1631472735834444</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02203436978973417</v>
+        <v>0.02094255163460756</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>80</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1276586103.692331</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3173448662.231736</v>
+        <v>2252167953.857856</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1402341570411202</v>
+        <v>0.1669754953131173</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03267336147664521</v>
+        <v>0.03265869671682303</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>89</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1586724295.221297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1708880084.833707</v>
+        <v>1333356075.283852</v>
       </c>
       <c r="F62" t="n">
-        <v>0.145869371742759</v>
+        <v>0.1542456080587772</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04160481635968988</v>
+        <v>0.03043290090443381</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>854440056.8024892</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4255712291.548812</v>
+        <v>4714363372.891942</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06850070003997757</v>
+        <v>0.0908931613705684</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03454944642136022</v>
+        <v>0.03647645308261679</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>74</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2127856196.734727</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3532015895.215762</v>
+        <v>3739970681.71991</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1322623254438307</v>
+        <v>0.1825444505753528</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03067435415514556</v>
+        <v>0.03019305421276503</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>80</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1766007950.548532</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4496421497.697395</v>
+        <v>4202863351.368001</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1424052162488055</v>
+        <v>0.1240932689134088</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02604072169979351</v>
+        <v>0.01970127792679647</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>92</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2248210737.806179</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3959403884.854205</v>
+        <v>4341714166.100571</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1353690306986045</v>
+        <v>0.1500414878356413</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03391338610638821</v>
+        <v>0.03859769277903038</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>75</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1979701913.861173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2756845255.148615</v>
+        <v>3085679973.725562</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09225534609104374</v>
+        <v>0.0645551535663348</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05032304741955711</v>
+        <v>0.04383610595370067</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>82</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1378422666.450529</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3719334140.564814</v>
+        <v>5427135761.338449</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1330380877989233</v>
+        <v>0.09761644954862975</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03648625814578101</v>
+        <v>0.04520483181047076</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>86</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1859667049.062544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2081609080.50686</v>
+        <v>1759717871.541392</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1417170690317755</v>
+        <v>0.1768906227198757</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04237954338229918</v>
+        <v>0.05088231446459535</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1040804555.740177</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3516546862.314206</v>
+        <v>2568771624.314257</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07999983066953698</v>
+        <v>0.09839504417399675</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04270656984410139</v>
+        <v>0.0363849553922796</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>73</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1758273441.736521</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3774388558.729846</v>
+        <v>3731961171.015993</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1220325668723931</v>
+        <v>0.1443457430771336</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02457887394136795</v>
+        <v>0.02319979941910622</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>95</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1887194293.599069</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1904689725.457032</v>
+        <v>1496149084.649908</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07491586962151431</v>
+        <v>0.08278277170331733</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0456924490593569</v>
+        <v>0.05263123374900566</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>952344824.4362388</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3523985887.953142</v>
+        <v>3199727869.163589</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06966298691199224</v>
+        <v>0.08471297574508606</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04148426782162076</v>
+        <v>0.04400230718120316</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>97</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1761992891.968133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3980571198.196738</v>
+        <v>2754265257.347513</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1697838816725944</v>
+        <v>0.1615448821478695</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02681035046196215</v>
+        <v>0.03353379118779538</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>87</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1990285579.732522</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2244915520.445322</v>
+        <v>1817151276.746294</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1471959258853653</v>
+        <v>0.1108213251606809</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02400358370486957</v>
+        <v>0.02951146845014778</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1122457701.392792</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5135665516.73488</v>
+        <v>4256061433.871492</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08053297925846606</v>
+        <v>0.09536124144760744</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02242443058909999</v>
+        <v>0.02163347637244098</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2567832790.663402</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1747186831.405688</v>
+        <v>2123842243.201845</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1292115116940007</v>
+        <v>0.1770136086649352</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02893410284265231</v>
+        <v>0.0258619450061263</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>873593439.8810483</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3498898597.149772</v>
+        <v>4697632842.295153</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0835164360386615</v>
+        <v>0.1369845486182852</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03950080752949093</v>
+        <v>0.04967565500344056</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>89</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1749449300.16821</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1383899272.125044</v>
+        <v>1632899865.946201</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1259212476619605</v>
+        <v>0.1299280780734285</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02682530292377732</v>
+        <v>0.03685947049527384</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>691949649.9265614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3473520707.982818</v>
+        <v>4713776843.761294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06918034792273996</v>
+        <v>0.1031002004684835</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03820776938482594</v>
+        <v>0.03741366864162622</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>54</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1736760327.281906</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4780090831.414003</v>
+        <v>4255964281.263352</v>
       </c>
       <c r="F81" t="n">
-        <v>0.126470863913368</v>
+        <v>0.1357150298281056</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03074839577982016</v>
+        <v>0.03011597878267375</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>58</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2390045407.889364</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4574075139.978767</v>
+        <v>4550005409.590147</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1443514437623201</v>
+        <v>0.1522153400996897</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02713664327648691</v>
+        <v>0.02778929275802892</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>90</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2287037577.71031</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1656636056.990029</v>
+        <v>1980242975.125947</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1097235357764219</v>
+        <v>0.09588915006816984</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03021975275412451</v>
+        <v>0.03396556222195757</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>828317971.0841539</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1680582260.712363</v>
+        <v>2504822491.376316</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1147482235884452</v>
+        <v>0.1052703816853158</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03535459641748896</v>
+        <v>0.0360813778455719</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>840291182.1102897</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2684281272.266273</v>
+        <v>2894627360.083674</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1360244542483558</v>
+        <v>0.1284332320819704</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04954742912889491</v>
+        <v>0.03991746821600665</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>97</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1342140661.414169</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2773437667.903513</v>
+        <v>2155050046.679423</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1669071603059883</v>
+        <v>0.12060801164748</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01764659651036443</v>
+        <v>0.02141315018004851</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>33</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1386718969.104864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1424433222.655505</v>
+        <v>977952559.5819716</v>
       </c>
       <c r="F87" t="n">
-        <v>0.179317841860223</v>
+        <v>0.1465443553385486</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03656323744021655</v>
+        <v>0.0270409595717415</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>712216724.4299698</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2582141371.077258</v>
+        <v>3236393369.687455</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1733676095504964</v>
+        <v>0.1278893437644388</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03790457104816032</v>
+        <v>0.02851752459177982</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>101</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1291070674.678335</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2709541006.425192</v>
+        <v>3093369454.562181</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1086337453800483</v>
+        <v>0.1232942136408974</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03348688335570936</v>
+        <v>0.03357585306652599</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>88</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1354770562.601516</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1371756589.241666</v>
+        <v>1568116169.321332</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1139620409019818</v>
+        <v>0.107562044668001</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05597976962848012</v>
+        <v>0.03740438862078651</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>685878249.8512268</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1353249010.184118</v>
+        <v>1383405387.760254</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1598524424208518</v>
+        <v>0.1657708744964665</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04860542363341402</v>
+        <v>0.0532368441291476</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>676624563.5548449</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2873786007.70553</v>
+        <v>2205857898.07413</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1091000761056449</v>
+        <v>0.1026503599787636</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04253869301177639</v>
+        <v>0.04319524886349974</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>64</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1436893016.042948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3194797621.907083</v>
+        <v>3222383695.69276</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09673972010762472</v>
+        <v>0.1248592132203484</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04577880874320998</v>
+        <v>0.05135746840862757</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1597398863.610828</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1768833524.511012</v>
+        <v>2508876823.483051</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1145440470332853</v>
+        <v>0.1467574617113622</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0404372610346773</v>
+        <v>0.03274452728988426</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>884416730.517274</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3195590549.44657</v>
+        <v>2662288347.947515</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1111866017447086</v>
+        <v>0.1298016434741679</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04112067103051791</v>
+        <v>0.04903995522012314</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>62</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1597795260.203462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1839600174.090409</v>
+        <v>1452867403.092917</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1107243019062414</v>
+        <v>0.09423483796360421</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04087864830013988</v>
+        <v>0.03572888705266961</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>919800091.1343732</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3825881381.111178</v>
+        <v>3436510496.832451</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1349839046103895</v>
+        <v>0.1204905197818803</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01906350213721519</v>
+        <v>0.02336833472855068</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>83</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1912940732.922011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2955426228.716381</v>
+        <v>3537464753.023938</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08656851474113686</v>
+        <v>0.1046546064414263</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0198589498968808</v>
+        <v>0.02098012173294198</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>69</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1477713096.013736</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3184117224.741411</v>
+        <v>3250998744.654862</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1094106477208208</v>
+        <v>0.09662729894435805</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02137201497299303</v>
+        <v>0.03185693216958922</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>80</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1592058611.700978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3484927840.243717</v>
+        <v>3144523870.317324</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1652010952509873</v>
+        <v>0.1252403836683747</v>
       </c>
       <c r="G100" t="n">
-        <v>0.025371516239865</v>
+        <v>0.02554309989609883</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>79</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1742463949.656598</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3161228819.68049</v>
+        <v>3055313990.511731</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1713080173475219</v>
+        <v>0.1421246692753436</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05271632162790228</v>
+        <v>0.05154699344592885</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>103</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1580614520.183602</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_257.xlsx
+++ b/output/fit_clients/fit_round_257.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1776899311.034982</v>
+        <v>1625403375.982588</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1034723291555927</v>
+        <v>0.1102105758022807</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03043818377457698</v>
+        <v>0.04031539290214845</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2439567124.401446</v>
+        <v>1833352695.86987</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1705433287689643</v>
+        <v>0.1542219861923436</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03686950171504905</v>
+        <v>0.04411187655560197</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4047022048.922797</v>
+        <v>3985100063.176363</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1501223203264363</v>
+        <v>0.1670886720768184</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03343696264455683</v>
+        <v>0.03350812787825892</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3846615019.727104</v>
+        <v>4034435276.521543</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09992501113549293</v>
+        <v>0.09324677658235282</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03676360843058673</v>
+        <v>0.0380804954097997</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1922070130.004196</v>
+        <v>2341845857.10894</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1147793493153435</v>
+        <v>0.1011274437319837</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05324517799168629</v>
+        <v>0.05143094927777422</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2604871870.533024</v>
+        <v>2016499396.832412</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0920341843014679</v>
+        <v>0.0636786789528853</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03594048374834798</v>
+        <v>0.04854400307746735</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3635195473.944832</v>
+        <v>3593348739.276076</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2195582210312777</v>
+        <v>0.1330805436187495</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03335961689538258</v>
+        <v>0.03260262162484413</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1963335821.607102</v>
+        <v>2280799669.514082</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1746109912331317</v>
+        <v>0.1624979764283645</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02252494940504994</v>
+        <v>0.0368468135974416</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5887152270.425641</v>
+        <v>4621955139.178212</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1527098723012918</v>
+        <v>0.1879959586782882</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0372340449630072</v>
+        <v>0.03976178373478765</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3713100060.388361</v>
+        <v>4032051551.052379</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1842723017461146</v>
+        <v>0.1570496786647682</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04351871656032896</v>
+        <v>0.03836912924983192</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2148760670.262244</v>
+        <v>2412124771.571604</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1426983105035097</v>
+        <v>0.1305629321017165</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03281210286635257</v>
+        <v>0.04974388879839529</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4494726948.861224</v>
+        <v>5095324617.927649</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06632519916816676</v>
+        <v>0.06730734782772606</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01940235970703777</v>
+        <v>0.02754296513809323</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3492510303.566797</v>
+        <v>3382345286.734182</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1490255572334953</v>
+        <v>0.1433807940867639</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03346532773353895</v>
+        <v>0.03104320706070724</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1710409358.257864</v>
+        <v>1310453418.241321</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07784701356398621</v>
+        <v>0.1085446827428026</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0401635950608332</v>
+        <v>0.03040930892491911</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1879789974.960069</v>
+        <v>1864873140.803896</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08047825948714547</v>
+        <v>0.08853125762860097</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04673193418942403</v>
+        <v>0.05020578421531367</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4953022561.876932</v>
+        <v>4799271099.171715</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1212520759318668</v>
+        <v>0.1065581620562284</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0500386240269606</v>
+        <v>0.04600787433443719</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3162178311.428966</v>
+        <v>3410548157.339402</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1291292105337873</v>
+        <v>0.1303024241317362</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02975227286051159</v>
+        <v>0.02710481669044158</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1197855562.295487</v>
+        <v>836908399.6805159</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1496612264148849</v>
+        <v>0.1182471096718756</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02235721317745509</v>
+        <v>0.01698061199748901</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2164381563.369003</v>
+        <v>1853255599.519773</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1007425911764761</v>
+        <v>0.104702312430007</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02792753448123865</v>
+        <v>0.03107253720373686</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2603285042.479784</v>
+        <v>1759618664.334343</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07766010721204977</v>
+        <v>0.0871726396151894</v>
       </c>
       <c r="G21" t="n">
-        <v>0.036844150206032</v>
+        <v>0.03138408804168823</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2583147552.211146</v>
+        <v>2864569397.370003</v>
       </c>
       <c r="F22" t="n">
-        <v>0.130869732754997</v>
+        <v>0.09441911965504918</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04335688622254093</v>
+        <v>0.05492876828403874</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1070456314.384325</v>
+        <v>1098768986.09497</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1672342584045348</v>
+        <v>0.1266241082881128</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04777497261962378</v>
+        <v>0.05279620272185537</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2698169821.91067</v>
+        <v>3869479947.365561</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09408051264531597</v>
+        <v>0.1327178549509859</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03153397921659959</v>
+        <v>0.03644494079608153</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1320588222.306042</v>
+        <v>995997247.8460639</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1223790207551654</v>
+        <v>0.1099231809581413</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02733188804137617</v>
+        <v>0.02008044106409698</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>957713776.2005523</v>
+        <v>995391928.7609683</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09916744262466538</v>
+        <v>0.1121721477887124</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03716706987680415</v>
+        <v>0.03792073310991346</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3452684248.121399</v>
+        <v>3802491704.875425</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1531213027819954</v>
+        <v>0.1459332625671688</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02599095120396388</v>
+        <v>0.02573599452558501</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3596281525.263141</v>
+        <v>2866887688.077764</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1108066301970072</v>
+        <v>0.1194907070799188</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03433550074738057</v>
+        <v>0.03541709656940821</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4978689457.187113</v>
+        <v>5547211702.91926</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09518096109025528</v>
+        <v>0.1417759868186725</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03010902734993229</v>
+        <v>0.04523524387005901</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2355436309.926049</v>
+        <v>1771335359.851918</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1314329082510239</v>
+        <v>0.1249130430803984</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03642402611640724</v>
+        <v>0.03099999816399022</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1174954582.826566</v>
+        <v>1497367133.047657</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1028656570700966</v>
+        <v>0.107157243134048</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03481756702427143</v>
+        <v>0.03534163573417601</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1334409085.391695</v>
+        <v>1791272482.794457</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08310190694416485</v>
+        <v>0.1030513983382122</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03041641826620695</v>
+        <v>0.03596494776094853</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1943216901.888176</v>
+        <v>2679409871.552488</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2024020803596933</v>
+        <v>0.1894933676802593</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0458784598258235</v>
+        <v>0.04856352505169245</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1254998420.370532</v>
+        <v>1039826390.013894</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1057766539210666</v>
+        <v>0.1076220510636403</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02392271514222121</v>
+        <v>0.02732116605953299</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1235365741.137925</v>
+        <v>1301155255.291286</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09554567715803157</v>
+        <v>0.09134543835823115</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04266207015950198</v>
+        <v>0.04510789372714263</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2970304821.672266</v>
+        <v>2588212634.001721</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1166798865659986</v>
+        <v>0.11447302365335</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0255514191645618</v>
+        <v>0.02389161291258515</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2061114497.212235</v>
+        <v>1779250498.832644</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08968249270018323</v>
+        <v>0.07119004577093214</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04006860693207794</v>
+        <v>0.0279424071733405</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1394061135.401231</v>
+        <v>2182649026.791753</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09966671180843811</v>
+        <v>0.08131007338991299</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03799373712897681</v>
+        <v>0.02625448442222258</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1393701111.732213</v>
+        <v>1803399858.548361</v>
       </c>
       <c r="F39" t="n">
-        <v>0.126966261857515</v>
+        <v>0.172758172881168</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02286565742657634</v>
+        <v>0.02964318201990936</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1498906558.325625</v>
+        <v>1787541084.51387</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09853775779895388</v>
+        <v>0.1331307311892884</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04499623802488338</v>
+        <v>0.04595332737295314</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2469672664.780771</v>
+        <v>2190843413.239083</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1453495151962229</v>
+        <v>0.1266492928259816</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03300978239301546</v>
+        <v>0.03713678294256343</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3581817901.668259</v>
+        <v>3684806134.434082</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08804776296237683</v>
+        <v>0.119831625147651</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03450419372511807</v>
+        <v>0.04545182970065278</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2245932668.23767</v>
+        <v>1976610772.3944</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1933344163867386</v>
+        <v>0.1538273588016343</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02113221956844727</v>
+        <v>0.01591844779303911</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1866190624.129166</v>
+        <v>1854864693.009423</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08359840037900367</v>
+        <v>0.08996759289246116</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02774196559175613</v>
+        <v>0.02577912143530031</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2344551531.113668</v>
+        <v>1574380280.421262</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1510693079169513</v>
+        <v>0.14150928768069</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04891783701358447</v>
+        <v>0.05424906742490259</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3797931302.901694</v>
+        <v>4033477079.204104</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1413673969945279</v>
+        <v>0.1108493040037383</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04006314291385204</v>
+        <v>0.05208006697190994</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3353152486.9951</v>
+        <v>4661311359.907318</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1837988715387469</v>
+        <v>0.157091266419256</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03622725051649883</v>
+        <v>0.03708070632241032</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4490636536.433543</v>
+        <v>3315201050.780155</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0763628560815022</v>
+        <v>0.07285688209769844</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02921699793819766</v>
+        <v>0.0257511884687721</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,16 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1365644198.007204</v>
+        <v>1557529173.747492</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1495228068219626</v>
+        <v>0.1585544702872</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03009106324596296</v>
+        <v>0.04389732201939312</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2999157980.839475</v>
+        <v>2637330402.940589</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1637790498042823</v>
+        <v>0.1399727949002399</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04689411619295886</v>
+        <v>0.04743251236242167</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1495614624.805708</v>
+        <v>1355420880.936346</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1289221192296414</v>
+        <v>0.1231638817223998</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05090792686832308</v>
+        <v>0.0360910663225707</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5035749367.349247</v>
+        <v>5285691952.553662</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1263675751231796</v>
+        <v>0.1318778363106891</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05144444017684548</v>
+        <v>0.05065777841076406</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3190051279.511345</v>
+        <v>3599726531.192234</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1334646290083903</v>
+        <v>0.1277726071570634</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02376368091017067</v>
+        <v>0.02852687666314062</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3389544280.395373</v>
+        <v>3109165992.605368</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1073671144364214</v>
+        <v>0.1369070328454165</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05157907708894007</v>
+        <v>0.05093205053200406</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3426695325.269378</v>
+        <v>3890327189.048672</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1838296094037363</v>
+        <v>0.1862868622621847</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02832901864764402</v>
+        <v>0.02027209589981249</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1286370405.290164</v>
+        <v>1805430713.470866</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1143769356440489</v>
+        <v>0.1156944069467571</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05653837377023334</v>
+        <v>0.04208362227020561</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4275411627.429299</v>
+        <v>2914356828.383039</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1412955186769746</v>
+        <v>0.1612638544307627</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02228275778802661</v>
+        <v>0.02524381548967002</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1164425289.521497</v>
+        <v>1439645203.219576</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1692786724255785</v>
+        <v>0.2021768509956277</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03571503131147217</v>
+        <v>0.03316694674895284</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4352112441.362213</v>
+        <v>3941888295.085476</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08584726454335415</v>
+        <v>0.09463235729510362</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04826405025274144</v>
+        <v>0.03133719775056667</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2357763929.82197</v>
+        <v>2837499052.981404</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1631472735834444</v>
+        <v>0.1493229032712875</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02094255163460756</v>
+        <v>0.03187494267214008</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2252167953.857856</v>
+        <v>3018685816.611376</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1669754953131173</v>
+        <v>0.1500022494508759</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03265869671682303</v>
+        <v>0.02563870336686723</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1333356075.283852</v>
+        <v>1982219587.054949</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1542456080587772</v>
+        <v>0.1377083726799502</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03043290090443381</v>
+        <v>0.04586825546185069</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4714363372.891942</v>
+        <v>5432641281.747786</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0908931613705684</v>
+        <v>0.07000966489937686</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03647645308261679</v>
+        <v>0.046089325176702</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3739970681.71991</v>
+        <v>3489499600.943712</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1825444505753528</v>
+        <v>0.1602548603724521</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03019305421276503</v>
+        <v>0.02716131118666027</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4202863351.368001</v>
+        <v>5696058602.38465</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1240932689134088</v>
+        <v>0.1449354698891994</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01970127792679647</v>
+        <v>0.02083652032535193</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4341714166.100571</v>
+        <v>4106282474.385649</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1500414878356413</v>
+        <v>0.1429862680654324</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03859769277903038</v>
+        <v>0.04798297166755734</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3085679973.725562</v>
+        <v>2576995665.584867</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0645551535663348</v>
+        <v>0.09714288493826748</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04383610595370067</v>
+        <v>0.03565626081336139</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5427135761.338449</v>
+        <v>4982891837.985662</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09761644954862975</v>
+        <v>0.1328366807322111</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04520483181047076</v>
+        <v>0.03826657490231749</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1759717871.541392</v>
+        <v>1842402111.58973</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1768906227198757</v>
+        <v>0.1263551432541377</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05088231446459535</v>
+        <v>0.04524455361162162</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2568771624.314257</v>
+        <v>3197551837.038616</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09839504417399675</v>
+        <v>0.08866069505096937</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0363849553922796</v>
+        <v>0.04699119844509605</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3731961171.015993</v>
+        <v>3505078318.405945</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1443457430771336</v>
+        <v>0.1282371430266021</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02319979941910622</v>
+        <v>0.02180889977244606</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1496149084.649908</v>
+        <v>1458006816.834757</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08278277170331733</v>
+        <v>0.07861176966726544</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05263123374900566</v>
+        <v>0.035071274737651</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3199727869.163589</v>
+        <v>2836984305.244837</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08471297574508606</v>
+        <v>0.08921956089589103</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04400230718120316</v>
+        <v>0.03590424971046455</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,16 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2754265257.347513</v>
+        <v>3961203136.053922</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1615448821478695</v>
+        <v>0.1301409345171797</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03353379118779538</v>
+        <v>0.0228380692498139</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1817151276.746294</v>
+        <v>2235174826.305683</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1108213251606809</v>
+        <v>0.1147999015171938</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02951146845014778</v>
+        <v>0.02441037336560652</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4256061433.871492</v>
+        <v>3648589486.526796</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09536124144760744</v>
+        <v>0.09802115397203433</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02163347637244098</v>
+        <v>0.02483641846337925</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2123842243.201845</v>
+        <v>1614756298.914284</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1770136086649352</v>
+        <v>0.1275203585232627</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0258619450061263</v>
+        <v>0.02978229081627254</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4697632842.295153</v>
+        <v>4197952655.109706</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1369845486182852</v>
+        <v>0.1167855361400411</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04967565500344056</v>
+        <v>0.0530265662311294</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1632899865.946201</v>
+        <v>1895140442.190902</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1299280780734285</v>
+        <v>0.1658850688955766</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03685947049527384</v>
+        <v>0.03358299883499792</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4713776843.761294</v>
+        <v>5357391400.931302</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1031002004684835</v>
+        <v>0.09659127267718015</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03741366864162622</v>
+        <v>0.03640029926357789</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4255964281.263352</v>
+        <v>3896907751.034857</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1357150298281056</v>
+        <v>0.1075393766733118</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03011597878267375</v>
+        <v>0.02950824482722638</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4550005409.590147</v>
+        <v>4286864765.97102</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1522153400996897</v>
+        <v>0.1826760862492525</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02778929275802892</v>
+        <v>0.02831340457044836</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1980242975.125947</v>
+        <v>1951538934.769785</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09588915006816984</v>
+        <v>0.14701269610437</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03396556222195757</v>
+        <v>0.0348226180410673</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2504822491.376316</v>
+        <v>2456323960.347325</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1052703816853158</v>
+        <v>0.08460222149993471</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0360813778455719</v>
+        <v>0.0363479217491235</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2894627360.083674</v>
+        <v>2899460999.965383</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1284332320819704</v>
+        <v>0.1486274246795932</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03991746821600665</v>
+        <v>0.03821986214390579</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2155050046.679423</v>
+        <v>1764078569.362669</v>
       </c>
       <c r="F86" t="n">
-        <v>0.12060801164748</v>
+        <v>0.1590898160651593</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02141315018004851</v>
+        <v>0.02583566050921885</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>977952559.5819716</v>
+        <v>1017098813.234185</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1465443553385486</v>
+        <v>0.1853354201031018</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0270409595717415</v>
+        <v>0.03613749443528809</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3236393369.687455</v>
+        <v>2498807784.622798</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1278893437644388</v>
+        <v>0.1322121902760446</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02851752459177982</v>
+        <v>0.03307440843441745</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3093369454.562181</v>
+        <v>2566316099.050055</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1232942136408974</v>
+        <v>0.1212092183669482</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03357585306652599</v>
+        <v>0.03031522020619848</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1568116169.321332</v>
+        <v>1744416039.926701</v>
       </c>
       <c r="F90" t="n">
-        <v>0.107562044668001</v>
+        <v>0.1166523127889042</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03740438862078651</v>
+        <v>0.05591448422375413</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1383405387.760254</v>
+        <v>1277005230.068973</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1657708744964665</v>
+        <v>0.1712867257986388</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0532368441291476</v>
+        <v>0.03965176881182632</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2205857898.07413</v>
+        <v>2001478048.282743</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1026503599787636</v>
+        <v>0.06883267282319382</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04319524886349974</v>
+        <v>0.03432102079550808</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3222383695.69276</v>
+        <v>4216672606.344118</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1248592132203484</v>
+        <v>0.0965987531486051</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05135746840862757</v>
+        <v>0.03996735667678411</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2508876823.483051</v>
+        <v>2274957113.070327</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1467574617113622</v>
+        <v>0.1363615695296503</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03274452728988426</v>
+        <v>0.03166177086586054</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2662288347.947515</v>
+        <v>3185640705.149783</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1298016434741679</v>
+        <v>0.1211756518567457</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04903995522012314</v>
+        <v>0.04423041702595979</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1452867403.092917</v>
+        <v>1956407957.946101</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09423483796360421</v>
+        <v>0.1190778265448457</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03572888705266961</v>
+        <v>0.03988932266113741</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3436510496.832451</v>
+        <v>5379968576.783922</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1204905197818803</v>
+        <v>0.1403117776010513</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02336833472855068</v>
+        <v>0.02424099204475137</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3537464753.023938</v>
+        <v>3623388338.099511</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1046546064414263</v>
+        <v>0.09326527397794239</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02098012173294198</v>
+        <v>0.02450160859277314</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3250998744.654862</v>
+        <v>2660858929.094995</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09662729894435805</v>
+        <v>0.1095528353379248</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03185693216958922</v>
+        <v>0.03053586121437436</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3144523870.317324</v>
+        <v>4494990248.000647</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1252403836683747</v>
+        <v>0.1226690591422281</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02554309989609883</v>
+        <v>0.02122919666784501</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3055313990.511731</v>
+        <v>3609055049.630545</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1421246692753436</v>
+        <v>0.1714093685835629</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05154699344592885</v>
+        <v>0.04751303213024236</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_257.xlsx
+++ b/output/fit_clients/fit_round_257.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1625403375.982588</v>
+        <v>2288882678.826655</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1102105758022807</v>
+        <v>0.108219163426746</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04031539290214845</v>
+        <v>0.04537943028158858</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1833352695.86987</v>
+        <v>1924514821.187356</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1542219861923436</v>
+        <v>0.1246413215419753</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04411187655560197</v>
+        <v>0.04564041649664977</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3985100063.176363</v>
+        <v>4742013510.554625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1670886720768184</v>
+        <v>0.156033846838438</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03350812787825892</v>
+        <v>0.03244397470067577</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>138</v>
+      </c>
+      <c r="J4" t="n">
+        <v>257</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4034435276.521543</v>
+        <v>3741079061.457444</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09324677658235282</v>
+        <v>0.07373717807755688</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0380804954097997</v>
+        <v>0.04927781353159873</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>106</v>
+      </c>
+      <c r="J5" t="n">
+        <v>257</v>
+      </c>
+      <c r="K5" t="n">
+        <v>108.6381952679806</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2341845857.10894</v>
+        <v>2640819296.722281</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1011274437319837</v>
+        <v>0.1037546315351744</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05143094927777422</v>
+        <v>0.0476554476092186</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2016499396.832412</v>
+        <v>2795383525.854928</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0636786789528853</v>
+        <v>0.09256885477632917</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04854400307746735</v>
+        <v>0.04412671709316182</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3593348739.276076</v>
+        <v>2607244691.476842</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1330805436187495</v>
+        <v>0.2156291543511453</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03260262162484413</v>
+        <v>0.02671880388705204</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>69</v>
+      </c>
+      <c r="J8" t="n">
+        <v>255</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2280799669.514082</v>
+        <v>1518133542.272908</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1624979764283645</v>
+        <v>0.1741473793733742</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0368468135974416</v>
+        <v>0.03330343718751253</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4621955139.178212</v>
+        <v>4456855852.312863</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1879959586782882</v>
+        <v>0.1991221532251621</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03976178373478765</v>
+        <v>0.04945167070760741</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>232</v>
+      </c>
+      <c r="J10" t="n">
+        <v>257</v>
+      </c>
+      <c r="K10" t="n">
+        <v>104.8935886001651</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4032051551.052379</v>
+        <v>3842697536.400063</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1570496786647682</v>
+        <v>0.1250138872080132</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03836912924983192</v>
+        <v>0.04563986357244332</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>104</v>
+      </c>
+      <c r="J11" t="n">
+        <v>257</v>
+      </c>
+      <c r="K11" t="n">
+        <v>111.156399654432</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2412124771.571604</v>
+        <v>2983633990.869254</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1305629321017165</v>
+        <v>0.1689589831816302</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04974388879839529</v>
+        <v>0.04590137288220012</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +892,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5095324617.927649</v>
+        <v>3731317771.91635</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06730734782772606</v>
+        <v>0.08723700297975197</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02754296513809323</v>
+        <v>0.0262887720072444</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>130</v>
+      </c>
+      <c r="J13" t="n">
+        <v>257</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3382345286.734182</v>
+        <v>3109622156.766676</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1433807940867639</v>
+        <v>0.1713227165936907</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03104320706070724</v>
+        <v>0.0370093604898678</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>51</v>
+      </c>
+      <c r="J14" t="n">
+        <v>253</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1310453418.241321</v>
+        <v>1387340893.985822</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1085446827428026</v>
+        <v>0.06959570316545551</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03040930892491911</v>
+        <v>0.04839018359843217</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1864873140.803896</v>
+        <v>2201402427.299285</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08853125762860097</v>
+        <v>0.1008297465664089</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05020578421531367</v>
+        <v>0.04488612152765552</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4799271099.171715</v>
+        <v>3232026382.825212</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1065581620562284</v>
+        <v>0.1258260693956766</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04600787433443719</v>
+        <v>0.05087452769917932</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>123</v>
+      </c>
+      <c r="J17" t="n">
+        <v>256</v>
+      </c>
+      <c r="K17" t="n">
+        <v>64.86052248446303</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3410548157.339402</v>
+        <v>2870885833.939607</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1303024241317362</v>
+        <v>0.1489660414441178</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02710481669044158</v>
+        <v>0.03419512580419624</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>64</v>
+      </c>
+      <c r="J18" t="n">
+        <v>254</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>836908399.6805159</v>
+        <v>900936169.523333</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1182471096718756</v>
+        <v>0.1225574065357739</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01698061199748901</v>
+        <v>0.01677391427869507</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1853255599.519773</v>
+        <v>2064838787.500456</v>
       </c>
       <c r="F20" t="n">
-        <v>0.104702312430007</v>
+        <v>0.1347761177873819</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03107253720373686</v>
+        <v>0.02439883138388186</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1759618664.334343</v>
+        <v>2532719592.130902</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0871726396151894</v>
+        <v>0.07932750242091645</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03138408804168823</v>
+        <v>0.02902549114689075</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2864569397.370003</v>
+        <v>2709766703.314264</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09441911965504918</v>
+        <v>0.09911167020623887</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05492876828403874</v>
+        <v>0.04090809429245767</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>67</v>
+      </c>
+      <c r="J22" t="n">
+        <v>256</v>
+      </c>
+      <c r="K22" t="n">
+        <v>47.16617405531982</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1098768986.09497</v>
+        <v>1521491870.953659</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1266241082881128</v>
+        <v>0.1425888624801942</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05279620272185537</v>
+        <v>0.03821321575755669</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3869479947.365561</v>
+        <v>3873668750.800976</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1327178549509859</v>
+        <v>0.09741746385930929</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03644494079608153</v>
+        <v>0.02263219984774121</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>76</v>
+      </c>
+      <c r="J24" t="n">
+        <v>257</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>995997247.8460639</v>
+        <v>1097019696.117929</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1099231809581413</v>
+        <v>0.09628640466798456</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02008044106409698</v>
+        <v>0.01914073018530953</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>995391928.7609683</v>
+        <v>1283419067.987273</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1121721477887124</v>
+        <v>0.117220807391158</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03792073310991346</v>
+        <v>0.03460168393966564</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1386,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3802491704.875425</v>
+        <v>4147120768.907969</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1459332625671688</v>
+        <v>0.1420123345281831</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02573599452558501</v>
+        <v>0.01638118856884592</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>104</v>
+      </c>
+      <c r="J27" t="n">
+        <v>257</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2866887688.077764</v>
+        <v>2446270519.24172</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1194907070799188</v>
+        <v>0.1262204316081184</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03541709656940821</v>
+        <v>0.04501497096589218</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>51</v>
+      </c>
+      <c r="J28" t="n">
+        <v>254</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5547211702.91926</v>
+        <v>5707539723.951293</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1417759868186725</v>
+        <v>0.1136203289548959</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04523524387005901</v>
+        <v>0.04658576379924638</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>245</v>
+      </c>
+      <c r="J29" t="n">
+        <v>257</v>
+      </c>
+      <c r="K29" t="n">
+        <v>105.3784212521771</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1771335359.851918</v>
+        <v>1976568145.503921</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1249130430803984</v>
+        <v>0.09460045060611882</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03099999816399022</v>
+        <v>0.03503109496048257</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1497367133.047657</v>
+        <v>970496094.5670872</v>
       </c>
       <c r="F31" t="n">
-        <v>0.107157243134048</v>
+        <v>0.09171440275215699</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03534163573417601</v>
+        <v>0.03821205302536968</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1791272482.794457</v>
+        <v>1266402912.982666</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1030513983382122</v>
+        <v>0.1111405635937898</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03596494776094853</v>
+        <v>0.03316192788510471</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2679409871.552488</v>
+        <v>1914376832.199314</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1894933676802593</v>
+        <v>0.1706838825100229</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04856352505169245</v>
+        <v>0.0569398540537821</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1039826390.013894</v>
+        <v>1012521589.297034</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1076220510636403</v>
+        <v>0.09607242521199877</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02732116605953299</v>
+        <v>0.02100564529597123</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1301155255.291286</v>
+        <v>1271250211.755373</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09134543835823115</v>
+        <v>0.106097042011743</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04510789372714263</v>
+        <v>0.03027469635678295</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2588212634.001721</v>
+        <v>2103193547.14593</v>
       </c>
       <c r="F36" t="n">
-        <v>0.11447302365335</v>
+        <v>0.130610182116425</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02389161291258515</v>
+        <v>0.01897541335389748</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1779250498.832644</v>
+        <v>2565805927.814917</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07119004577093214</v>
+        <v>0.0856696110775068</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0279424071733405</v>
+        <v>0.03177829503208124</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2182649026.791753</v>
+        <v>1509348713.379518</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08131007338991299</v>
+        <v>0.1225902451323651</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02625448442222258</v>
+        <v>0.03644878257452238</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1803399858.548361</v>
+        <v>1500861506.716843</v>
       </c>
       <c r="F39" t="n">
-        <v>0.172758172881168</v>
+        <v>0.1314758237433938</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02964318201990936</v>
+        <v>0.02230350569565674</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1787541084.51387</v>
+        <v>1721560818.512606</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1331307311892884</v>
+        <v>0.1439677796105692</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04595332737295314</v>
+        <v>0.05888569333352515</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2190843413.239083</v>
+        <v>2692660617.964025</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1266492928259816</v>
+        <v>0.1459206652872554</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03713678294256343</v>
+        <v>0.03495974155878542</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3684806134.434082</v>
+        <v>4156470171.748664</v>
       </c>
       <c r="F42" t="n">
-        <v>0.119831625147651</v>
+        <v>0.1235086254647136</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04545182970065278</v>
+        <v>0.02854986418007484</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>106</v>
+      </c>
+      <c r="J42" t="n">
+        <v>257</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1976610772.3944</v>
+        <v>1974965581.445395</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1538273588016343</v>
+        <v>0.1660832307751701</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01591844779303911</v>
+        <v>0.02150714716787563</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1854864693.009423</v>
+        <v>2365205091.38956</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08996759289246116</v>
+        <v>0.102256692620542</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02577912143530031</v>
+        <v>0.03621433831894277</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1574380280.421262</v>
+        <v>1871197754.356817</v>
       </c>
       <c r="F45" t="n">
-        <v>0.14150928768069</v>
+        <v>0.1922825210856291</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05424906742490259</v>
+        <v>0.047298955839097</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4033477079.204104</v>
+        <v>4177481301.980938</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1108493040037383</v>
+        <v>0.1290821390074481</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05208006697190994</v>
+        <v>0.03854737949164932</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>149</v>
+      </c>
+      <c r="J46" t="n">
+        <v>256</v>
+      </c>
+      <c r="K46" t="n">
+        <v>100.4852398676697</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4661311359.907318</v>
+        <v>4917090929.096758</v>
       </c>
       <c r="F47" t="n">
-        <v>0.157091266419256</v>
+        <v>0.1752670008671567</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03708070632241032</v>
+        <v>0.04935154096028373</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>116</v>
+      </c>
+      <c r="J47" t="n">
+        <v>256</v>
+      </c>
+      <c r="K47" t="n">
+        <v>83.73792048128983</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3315201050.780155</v>
+        <v>3984600228.004935</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07285688209769844</v>
+        <v>0.09711672223791445</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0257511884687721</v>
+        <v>0.0334616121065111</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>127</v>
+      </c>
+      <c r="J48" t="n">
+        <v>257</v>
+      </c>
+      <c r="K48" t="n">
+        <v>106.041669719515</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1557529173.747492</v>
+        <v>1725343027.15845</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1585544702872</v>
+        <v>0.1892955204092467</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04389732201939312</v>
+        <v>0.03179208123549916</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2637330402.940589</v>
+        <v>3019797288.905106</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1399727949002399</v>
+        <v>0.1301690730757905</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04743251236242167</v>
+        <v>0.05100412534630856</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>83</v>
+      </c>
+      <c r="J50" t="n">
+        <v>254</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1355420880.936346</v>
+        <v>1271314615.196769</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1231638817223998</v>
+        <v>0.153676640080985</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0360910663225707</v>
+        <v>0.0480786287675657</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5285691952.553662</v>
+        <v>4351725500.562759</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1318778363106891</v>
+        <v>0.1079322081084028</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05065777841076406</v>
+        <v>0.04079108485078003</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>164</v>
+      </c>
+      <c r="J52" t="n">
+        <v>257</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2298,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3599726531.192234</v>
+        <v>3377455429.526331</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1277726071570634</v>
+        <v>0.1932833948461097</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02852687666314062</v>
+        <v>0.02882953213778112</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>35</v>
+      </c>
+      <c r="J53" t="n">
+        <v>256</v>
+      </c>
+      <c r="K53" t="n">
+        <v>76.91118244253853</v>
       </c>
     </row>
     <row r="54">
@@ -1942,17 +2341,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3109165992.605368</v>
+        <v>3958074083.996572</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1369070328454165</v>
+        <v>0.1375848860186613</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05093205053200406</v>
+        <v>0.03885212868582359</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>135</v>
+      </c>
+      <c r="J54" t="n">
+        <v>257</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3890327189.048672</v>
+        <v>3590284977.841414</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1862868622621847</v>
+        <v>0.1949206220820482</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02027209589981249</v>
+        <v>0.02769248170742711</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>115</v>
+      </c>
+      <c r="J55" t="n">
+        <v>256</v>
+      </c>
+      <c r="K55" t="n">
+        <v>87.58337713290672</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1805430713.470866</v>
+        <v>1682510434.890343</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1156944069467571</v>
+        <v>0.1170075818516138</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04208362227020561</v>
+        <v>0.0473014536474161</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2914356828.383039</v>
+        <v>4046873894.094413</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1612638544307627</v>
+        <v>0.1109142409095404</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02524381548967002</v>
+        <v>0.024582960494693</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>102</v>
+      </c>
+      <c r="J57" t="n">
+        <v>257</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1439645203.219576</v>
+        <v>1378613388.754507</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2021768509956277</v>
+        <v>0.1287903829519596</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03316694674895284</v>
+        <v>0.0276027985137042</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3941888295.085476</v>
+        <v>5209309209.371596</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09463235729510362</v>
+        <v>0.1097613948140657</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03133719775056667</v>
+        <v>0.03588622186626789</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>124</v>
+      </c>
+      <c r="J59" t="n">
+        <v>256</v>
+      </c>
+      <c r="K59" t="n">
+        <v>93.26517537240319</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2837499052.981404</v>
+        <v>3228605085.908179</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1493229032712875</v>
+        <v>0.1454683716317614</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03187494267214008</v>
+        <v>0.02312092315022068</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>37</v>
+      </c>
+      <c r="J60" t="n">
+        <v>248</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3018685816.611376</v>
+        <v>2572668161.996213</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1500022494508759</v>
+        <v>0.1646663582921842</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02563870336686723</v>
+        <v>0.02833057937830524</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>249</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1982219587.054949</v>
+        <v>2063719165.218529</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1377083726799502</v>
+        <v>0.1654954926782337</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04586825546185069</v>
+        <v>0.04112277450977612</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5432641281.747786</v>
+        <v>4387526113.121262</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07000966489937686</v>
+        <v>0.06898561981212455</v>
       </c>
       <c r="G63" t="n">
-        <v>0.046089325176702</v>
+        <v>0.03294713277773521</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>125</v>
+      </c>
+      <c r="J63" t="n">
+        <v>257</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2695,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3489499600.943712</v>
+        <v>3934791098.85909</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1602548603724521</v>
+        <v>0.1624708236072533</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02716131118666027</v>
+        <v>0.02292965093059462</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>126</v>
+      </c>
+      <c r="J64" t="n">
+        <v>257</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5696058602.38465</v>
+        <v>5929084790.786866</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1449354698891994</v>
+        <v>0.1138634149263671</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02083652032535193</v>
+        <v>0.02911808296221039</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>206</v>
+      </c>
+      <c r="J65" t="n">
+        <v>256</v>
+      </c>
+      <c r="K65" t="n">
+        <v>100.6175186309396</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4106282474.385649</v>
+        <v>5143366189.478304</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1429862680654324</v>
+        <v>0.1243564744197403</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04798297166755734</v>
+        <v>0.04831884047999209</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>127</v>
+      </c>
+      <c r="J66" t="n">
+        <v>256</v>
+      </c>
+      <c r="K66" t="n">
+        <v>90.74156499444415</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2576995665.584867</v>
+        <v>3036597563.535278</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09714288493826748</v>
+        <v>0.06535797608805657</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03565626081336139</v>
+        <v>0.03185233358444658</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>243</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4982891837.985662</v>
+        <v>5256285741.489364</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1328366807322111</v>
+        <v>0.1038235508114063</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03826657490231749</v>
+        <v>0.04234321547494677</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>131</v>
+      </c>
+      <c r="J68" t="n">
+        <v>256</v>
+      </c>
+      <c r="K68" t="n">
+        <v>100.2326661795543</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1842402111.58973</v>
+        <v>1973996051.829138</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1263551432541377</v>
+        <v>0.1759013640429868</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04524455361162162</v>
+        <v>0.05967441476660455</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3197551837.038616</v>
+        <v>2379232766.210452</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08866069505096937</v>
+        <v>0.09370433419532641</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04699119844509605</v>
+        <v>0.03181951603690706</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3505078318.405945</v>
+        <v>4242724332.820725</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1282371430266021</v>
+        <v>0.113113487209776</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02180889977244606</v>
+        <v>0.02149281917780326</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>194</v>
+      </c>
+      <c r="J71" t="n">
+        <v>257</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1458006816.834757</v>
+        <v>1879689648.088858</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07861176966726544</v>
+        <v>0.06726442052203731</v>
       </c>
       <c r="G72" t="n">
-        <v>0.035071274737651</v>
+        <v>0.04381897742522953</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2836984305.244837</v>
+        <v>2669948010.001105</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08921956089589103</v>
+        <v>0.09657822442264412</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03590424971046455</v>
+        <v>0.04452754243586544</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3961203136.053922</v>
+        <v>3627392893.680625</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1301409345171797</v>
+        <v>0.1282888083606654</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0228380692498139</v>
+        <v>0.02551660496357422</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>73</v>
+      </c>
+      <c r="J74" t="n">
+        <v>254</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2235174826.305683</v>
+        <v>2054886702.767848</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1147999015171938</v>
+        <v>0.1633006241690045</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02441037336560652</v>
+        <v>0.03450405805385587</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3121,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3648589486.526796</v>
+        <v>3483901896.287544</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09802115397203433</v>
+        <v>0.1093799737202144</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02483641846337925</v>
+        <v>0.02159718862257482</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>120</v>
+      </c>
+      <c r="J76" t="n">
+        <v>256</v>
+      </c>
+      <c r="K76" t="n">
+        <v>75.08509864969976</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1614756298.914284</v>
+        <v>1765142236.99021</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1275203585232627</v>
+        <v>0.1697035404979645</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02978229081627254</v>
+        <v>0.02577622504909542</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4197952655.109706</v>
+        <v>3677813070.59824</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1167855361400411</v>
+        <v>0.1162318977006347</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0530265662311294</v>
+        <v>0.05654619504167189</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>129</v>
+      </c>
+      <c r="J78" t="n">
+        <v>256</v>
+      </c>
+      <c r="K78" t="n">
+        <v>91.57617181625845</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1895140442.190902</v>
+        <v>1482228031.86482</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1658850688955766</v>
+        <v>0.1670848560861753</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03358299883499792</v>
+        <v>0.03225479970126599</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5357391400.931302</v>
+        <v>5140663061.277124</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09659127267718015</v>
+        <v>0.07538094908944064</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03640029926357789</v>
+        <v>0.03425340550637149</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>125</v>
+      </c>
+      <c r="J80" t="n">
+        <v>257</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3896907751.034857</v>
+        <v>4785122909.946912</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1075393766733118</v>
+        <v>0.1021181021455289</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02950824482722638</v>
+        <v>0.02484333527743675</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>117</v>
+      </c>
+      <c r="J81" t="n">
+        <v>257</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4286864765.97102</v>
+        <v>5026301610.516215</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1826760862492525</v>
+        <v>0.1372032126261156</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02831340457044836</v>
+        <v>0.02705880709643981</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>194</v>
+      </c>
+      <c r="J82" t="n">
+        <v>257</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1951538934.769785</v>
+        <v>1523422012.187692</v>
       </c>
       <c r="F83" t="n">
-        <v>0.14701269610437</v>
+        <v>0.1456545302036369</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0348226180410673</v>
+        <v>0.03477940142227059</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2456323960.347325</v>
+        <v>1648078024.946104</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08460222149993471</v>
+        <v>0.1169103127741135</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0363479217491235</v>
+        <v>0.03593334093121384</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2899460999.965383</v>
+        <v>2342508941.26253</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1486274246795932</v>
+        <v>0.1582102761432659</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03821986214390579</v>
+        <v>0.0362043354861021</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>251</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1764078569.362669</v>
+        <v>1954081766.132286</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1590898160651593</v>
+        <v>0.10914788038821</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02583566050921885</v>
+        <v>0.02668589923033008</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1017098813.234185</v>
+        <v>1478699221.872541</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1853354201031018</v>
+        <v>0.1814297734735433</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03613749443528809</v>
+        <v>0.0278405214680846</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2498807784.622798</v>
+        <v>3227530521.175074</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1322121902760446</v>
+        <v>0.1486178184892636</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03307440843441745</v>
+        <v>0.03358012414441162</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2566316099.050055</v>
+        <v>2149835510.444829</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1212092183669482</v>
+        <v>0.1296543792362565</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03031522020619848</v>
+        <v>0.03152891402586195</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>19</v>
+      </c>
+      <c r="J89" t="n">
+        <v>248</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1744416039.926701</v>
+        <v>1560497072.27694</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1166523127889042</v>
+        <v>0.1088093807999922</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05591448422375413</v>
+        <v>0.03793133360270348</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1277005230.068973</v>
+        <v>1306624285.668011</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1712867257986388</v>
+        <v>0.1661513014560874</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03965176881182632</v>
+        <v>0.05316214655692751</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2001478048.282743</v>
+        <v>2923393964.936933</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06883267282319382</v>
+        <v>0.07346492091139513</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03432102079550808</v>
+        <v>0.03099274765445369</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3714,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4216672606.344118</v>
+        <v>4003467860.784859</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0965987531486051</v>
+        <v>0.09544156357998705</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03996735667678411</v>
+        <v>0.05182561365093397</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>113</v>
+      </c>
+      <c r="J93" t="n">
+        <v>257</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3755,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2274957113.070327</v>
+        <v>1662743560.239067</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1363615695296503</v>
+        <v>0.1591464456093132</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03166177086586054</v>
+        <v>0.02716640501022263</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3185640705.149783</v>
+        <v>2342944864.412589</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1211756518567457</v>
+        <v>0.138440907000886</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04423041702595979</v>
+        <v>0.03299744812225357</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3825,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1956407957.946101</v>
+        <v>1593197292.008598</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1190778265448457</v>
+        <v>0.1179086762710005</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03988932266113741</v>
+        <v>0.04114902070938471</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3860,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5379968576.783922</v>
+        <v>3577382610.05552</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1403117776010513</v>
+        <v>0.1447539932206623</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02424099204475137</v>
+        <v>0.02070974871632301</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>126</v>
+      </c>
+      <c r="J97" t="n">
+        <v>256</v>
+      </c>
+      <c r="K97" t="n">
+        <v>86.17422027794724</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3897,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3623388338.099511</v>
+        <v>3219260375.535686</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09326527397794239</v>
+        <v>0.1098537535042035</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02450160859277314</v>
+        <v>0.02463112052714306</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>63</v>
+      </c>
+      <c r="J98" t="n">
+        <v>256</v>
+      </c>
+      <c r="K98" t="n">
+        <v>66.17565441685564</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2660858929.094995</v>
+        <v>2434624415.822169</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1095528353379248</v>
+        <v>0.1371582570328495</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03053586121437436</v>
+        <v>0.02682164457008381</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>252</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4494990248.000647</v>
+        <v>4248823490.012483</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1226690591422281</v>
+        <v>0.1186498418641518</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02122919666784501</v>
+        <v>0.02115496999633388</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>108</v>
+      </c>
+      <c r="J100" t="n">
+        <v>256</v>
+      </c>
+      <c r="K100" t="n">
+        <v>99.57405647834325</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3609055049.630545</v>
+        <v>3539027627.206914</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1714093685835629</v>
+        <v>0.2123908836946791</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04751303213024236</v>
+        <v>0.0454256298987413</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>19</v>
+      </c>
+      <c r="J101" t="n">
+        <v>251</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
